--- a/Fitness App Tasks.xlsx
+++ b/Fitness App Tasks.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakshithb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rakshith\FitnessApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SSDT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Harish</t>
   </si>
@@ -117,6 +118,19 @@
   </si>
   <si>
     <t>Container Hub</t>
+  </si>
+  <si>
+    <t>Visual studio 2017</t>
+  </si>
+  <si>
+    <t>https://download.microsoft.com/download/5/A/D/5AD18EB8-7A35-4296-9364-03CA17E19737/SSDT-Setup-ENU.exe</t>
+  </si>
+  <si>
+    <t>Make sure you are on latest version minimum update 15.9.13
+In order to update - open VS 2017 --&gt; Help --&gt; check for updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download and install SSDT </t>
   </si>
 </sst>
 </file>
@@ -164,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -174,6 +188,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -545,4 +562,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>